--- a/stock/data/GS리테일.xlsx
+++ b/stock/data/GS리테일.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3021"/>
+  <dimension ref="A1:G3054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69928,10 +69928,769 @@
         <v>20300</v>
       </c>
       <c r="F3021" t="n">
-        <v>199742</v>
+        <v>200024</v>
       </c>
       <c r="G3021" t="n">
         <v>-0.7334963325183375</v>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B3022" t="n">
+        <v>20400</v>
+      </c>
+      <c r="C3022" t="n">
+        <v>20800</v>
+      </c>
+      <c r="D3022" t="n">
+        <v>20200</v>
+      </c>
+      <c r="E3022" t="n">
+        <v>20800</v>
+      </c>
+      <c r="F3022" t="n">
+        <v>206780</v>
+      </c>
+      <c r="G3022" t="n">
+        <v>2.463054187192118</v>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B3023" t="n">
+        <v>20600</v>
+      </c>
+      <c r="C3023" t="n">
+        <v>20850</v>
+      </c>
+      <c r="D3023" t="n">
+        <v>20450</v>
+      </c>
+      <c r="E3023" t="n">
+        <v>20450</v>
+      </c>
+      <c r="F3023" t="n">
+        <v>149903</v>
+      </c>
+      <c r="G3023" t="n">
+        <v>-1.682692307692308</v>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B3024" t="n">
+        <v>20400</v>
+      </c>
+      <c r="C3024" t="n">
+        <v>20500</v>
+      </c>
+      <c r="D3024" t="n">
+        <v>20150</v>
+      </c>
+      <c r="E3024" t="n">
+        <v>20200</v>
+      </c>
+      <c r="F3024" t="n">
+        <v>238413</v>
+      </c>
+      <c r="G3024" t="n">
+        <v>-1.222493887530562</v>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B3025" t="n">
+        <v>20300</v>
+      </c>
+      <c r="C3025" t="n">
+        <v>20400</v>
+      </c>
+      <c r="D3025" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E3025" t="n">
+        <v>20050</v>
+      </c>
+      <c r="F3025" t="n">
+        <v>254990</v>
+      </c>
+      <c r="G3025" t="n">
+        <v>-0.7425742574257426</v>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B3026" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C3026" t="n">
+        <v>20400</v>
+      </c>
+      <c r="D3026" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E3026" t="n">
+        <v>20100</v>
+      </c>
+      <c r="F3026" t="n">
+        <v>212208</v>
+      </c>
+      <c r="G3026" t="n">
+        <v>0.2493765586034913</v>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B3027" t="n">
+        <v>20100</v>
+      </c>
+      <c r="C3027" t="n">
+        <v>20300</v>
+      </c>
+      <c r="D3027" t="n">
+        <v>20100</v>
+      </c>
+      <c r="E3027" t="n">
+        <v>20150</v>
+      </c>
+      <c r="F3027" t="n">
+        <v>91959</v>
+      </c>
+      <c r="G3027" t="n">
+        <v>0.2487562189054726</v>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B3028" t="n">
+        <v>20250</v>
+      </c>
+      <c r="C3028" t="n">
+        <v>20350</v>
+      </c>
+      <c r="D3028" t="n">
+        <v>19990</v>
+      </c>
+      <c r="E3028" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F3028" t="n">
+        <v>181950</v>
+      </c>
+      <c r="G3028" t="n">
+        <v>-0.7444168734491315</v>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B3029" t="n">
+        <v>19810</v>
+      </c>
+      <c r="C3029" t="n">
+        <v>19980</v>
+      </c>
+      <c r="D3029" t="n">
+        <v>19620</v>
+      </c>
+      <c r="E3029" t="n">
+        <v>19690</v>
+      </c>
+      <c r="F3029" t="n">
+        <v>335871</v>
+      </c>
+      <c r="G3029" t="n">
+        <v>-1.55</v>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B3030" t="n">
+        <v>19660</v>
+      </c>
+      <c r="C3030" t="n">
+        <v>19720</v>
+      </c>
+      <c r="D3030" t="n">
+        <v>19010</v>
+      </c>
+      <c r="E3030" t="n">
+        <v>19030</v>
+      </c>
+      <c r="F3030" t="n">
+        <v>589585</v>
+      </c>
+      <c r="G3030" t="n">
+        <v>-3.35195530726257</v>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B3031" t="n">
+        <v>19010</v>
+      </c>
+      <c r="C3031" t="n">
+        <v>19050</v>
+      </c>
+      <c r="D3031" t="n">
+        <v>18630</v>
+      </c>
+      <c r="E3031" t="n">
+        <v>18700</v>
+      </c>
+      <c r="F3031" t="n">
+        <v>264001</v>
+      </c>
+      <c r="G3031" t="n">
+        <v>-1.734104046242774</v>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B3032" t="n">
+        <v>18600</v>
+      </c>
+      <c r="C3032" t="n">
+        <v>18680</v>
+      </c>
+      <c r="D3032" t="n">
+        <v>18350</v>
+      </c>
+      <c r="E3032" t="n">
+        <v>18560</v>
+      </c>
+      <c r="F3032" t="n">
+        <v>240749</v>
+      </c>
+      <c r="G3032" t="n">
+        <v>-0.7486631016042781</v>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B3033" t="n">
+        <v>18570</v>
+      </c>
+      <c r="C3033" t="n">
+        <v>18800</v>
+      </c>
+      <c r="D3033" t="n">
+        <v>18510</v>
+      </c>
+      <c r="E3033" t="n">
+        <v>18600</v>
+      </c>
+      <c r="F3033" t="n">
+        <v>176258</v>
+      </c>
+      <c r="G3033" t="n">
+        <v>0.2155172413793103</v>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B3034" t="n">
+        <v>18810</v>
+      </c>
+      <c r="C3034" t="n">
+        <v>19100</v>
+      </c>
+      <c r="D3034" t="n">
+        <v>18630</v>
+      </c>
+      <c r="E3034" t="n">
+        <v>19070</v>
+      </c>
+      <c r="F3034" t="n">
+        <v>153170</v>
+      </c>
+      <c r="G3034" t="n">
+        <v>2.526881720430108</v>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B3035" t="n">
+        <v>19020</v>
+      </c>
+      <c r="C3035" t="n">
+        <v>19190</v>
+      </c>
+      <c r="D3035" t="n">
+        <v>18830</v>
+      </c>
+      <c r="E3035" t="n">
+        <v>19030</v>
+      </c>
+      <c r="F3035" t="n">
+        <v>223649</v>
+      </c>
+      <c r="G3035" t="n">
+        <v>-0.2097535395909806</v>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B3036" t="n">
+        <v>19240</v>
+      </c>
+      <c r="C3036" t="n">
+        <v>19550</v>
+      </c>
+      <c r="D3036" t="n">
+        <v>19050</v>
+      </c>
+      <c r="E3036" t="n">
+        <v>19510</v>
+      </c>
+      <c r="F3036" t="n">
+        <v>161910</v>
+      </c>
+      <c r="G3036" t="n">
+        <v>2.522333158171309</v>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B3037" t="n">
+        <v>19520</v>
+      </c>
+      <c r="C3037" t="n">
+        <v>19790</v>
+      </c>
+      <c r="D3037" t="n">
+        <v>19450</v>
+      </c>
+      <c r="E3037" t="n">
+        <v>19780</v>
+      </c>
+      <c r="F3037" t="n">
+        <v>173530</v>
+      </c>
+      <c r="G3037" t="n">
+        <v>1.383905689390056</v>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B3038" t="n">
+        <v>19780</v>
+      </c>
+      <c r="C3038" t="n">
+        <v>19830</v>
+      </c>
+      <c r="D3038" t="n">
+        <v>19440</v>
+      </c>
+      <c r="E3038" t="n">
+        <v>19650</v>
+      </c>
+      <c r="F3038" t="n">
+        <v>215630</v>
+      </c>
+      <c r="G3038" t="n">
+        <v>-0.6572295247724975</v>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B3039" t="n">
+        <v>19460</v>
+      </c>
+      <c r="C3039" t="n">
+        <v>19840</v>
+      </c>
+      <c r="D3039" t="n">
+        <v>19460</v>
+      </c>
+      <c r="E3039" t="n">
+        <v>19610</v>
+      </c>
+      <c r="F3039" t="n">
+        <v>105928</v>
+      </c>
+      <c r="G3039" t="n">
+        <v>-0.2035623409669211</v>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B3040" t="n">
+        <v>19650</v>
+      </c>
+      <c r="C3040" t="n">
+        <v>19670</v>
+      </c>
+      <c r="D3040" t="n">
+        <v>19480</v>
+      </c>
+      <c r="E3040" t="n">
+        <v>19660</v>
+      </c>
+      <c r="F3040" t="n">
+        <v>120001</v>
+      </c>
+      <c r="G3040" t="n">
+        <v>0.2549719530851606</v>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B3041" t="n">
+        <v>19840</v>
+      </c>
+      <c r="C3041" t="n">
+        <v>19960</v>
+      </c>
+      <c r="D3041" t="n">
+        <v>19660</v>
+      </c>
+      <c r="E3041" t="n">
+        <v>19960</v>
+      </c>
+      <c r="F3041" t="n">
+        <v>136795</v>
+      </c>
+      <c r="G3041" t="n">
+        <v>1.525940996948118</v>
+      </c>
+    </row>
+    <row r="3042">
+      <c r="A3042" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B3042" t="n">
+        <v>19740</v>
+      </c>
+      <c r="C3042" t="n">
+        <v>20100</v>
+      </c>
+      <c r="D3042" t="n">
+        <v>19730</v>
+      </c>
+      <c r="E3042" t="n">
+        <v>19930</v>
+      </c>
+      <c r="F3042" t="n">
+        <v>150330</v>
+      </c>
+      <c r="G3042" t="n">
+        <v>-0.1503006012024048</v>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B3043" t="n">
+        <v>19810</v>
+      </c>
+      <c r="C3043" t="n">
+        <v>19980</v>
+      </c>
+      <c r="D3043" t="n">
+        <v>19810</v>
+      </c>
+      <c r="E3043" t="n">
+        <v>19890</v>
+      </c>
+      <c r="F3043" t="n">
+        <v>162289</v>
+      </c>
+      <c r="G3043" t="n">
+        <v>-0.2007024586051179</v>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B3044" t="n">
+        <v>19940</v>
+      </c>
+      <c r="C3044" t="n">
+        <v>20100</v>
+      </c>
+      <c r="D3044" t="n">
+        <v>19860</v>
+      </c>
+      <c r="E3044" t="n">
+        <v>20100</v>
+      </c>
+      <c r="F3044" t="n">
+        <v>110568</v>
+      </c>
+      <c r="G3044" t="n">
+        <v>1.055806938159879</v>
+      </c>
+    </row>
+    <row r="3045">
+      <c r="A3045" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B3045" t="n">
+        <v>20200</v>
+      </c>
+      <c r="C3045" t="n">
+        <v>20200</v>
+      </c>
+      <c r="D3045" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E3045" t="n">
+        <v>20050</v>
+      </c>
+      <c r="F3045" t="n">
+        <v>126791</v>
+      </c>
+      <c r="G3045" t="n">
+        <v>-0.2487562189054726</v>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B3046" t="n">
+        <v>20050</v>
+      </c>
+      <c r="C3046" t="n">
+        <v>20450</v>
+      </c>
+      <c r="D3046" t="n">
+        <v>19990</v>
+      </c>
+      <c r="E3046" t="n">
+        <v>20450</v>
+      </c>
+      <c r="F3046" t="n">
+        <v>208525</v>
+      </c>
+      <c r="G3046" t="n">
+        <v>1.99501246882793</v>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B3047" t="n">
+        <v>20400</v>
+      </c>
+      <c r="C3047" t="n">
+        <v>20750</v>
+      </c>
+      <c r="D3047" t="n">
+        <v>20200</v>
+      </c>
+      <c r="E3047" t="n">
+        <v>20550</v>
+      </c>
+      <c r="F3047" t="n">
+        <v>274951</v>
+      </c>
+      <c r="G3047" t="n">
+        <v>0.4889975550122249</v>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B3048" t="n">
+        <v>20650</v>
+      </c>
+      <c r="C3048" t="n">
+        <v>21400</v>
+      </c>
+      <c r="D3048" t="n">
+        <v>20500</v>
+      </c>
+      <c r="E3048" t="n">
+        <v>21050</v>
+      </c>
+      <c r="F3048" t="n">
+        <v>444654</v>
+      </c>
+      <c r="G3048" t="n">
+        <v>2.4330900243309</v>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B3049" t="n">
+        <v>21200</v>
+      </c>
+      <c r="C3049" t="n">
+        <v>21200</v>
+      </c>
+      <c r="D3049" t="n">
+        <v>20600</v>
+      </c>
+      <c r="E3049" t="n">
+        <v>20600</v>
+      </c>
+      <c r="F3049" t="n">
+        <v>189076</v>
+      </c>
+      <c r="G3049" t="n">
+        <v>-2.137767220902613</v>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B3050" t="n">
+        <v>20650</v>
+      </c>
+      <c r="C3050" t="n">
+        <v>20850</v>
+      </c>
+      <c r="D3050" t="n">
+        <v>20500</v>
+      </c>
+      <c r="E3050" t="n">
+        <v>20750</v>
+      </c>
+      <c r="F3050" t="n">
+        <v>147855</v>
+      </c>
+      <c r="G3050" t="n">
+        <v>0.7281553398058253</v>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B3051" t="n">
+        <v>20800</v>
+      </c>
+      <c r="C3051" t="n">
+        <v>20900</v>
+      </c>
+      <c r="D3051" t="n">
+        <v>20250</v>
+      </c>
+      <c r="E3051" t="n">
+        <v>20250</v>
+      </c>
+      <c r="F3051" t="n">
+        <v>167797</v>
+      </c>
+      <c r="G3051" t="n">
+        <v>-2.409638554216868</v>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B3052" t="n">
+        <v>20250</v>
+      </c>
+      <c r="C3052" t="n">
+        <v>20800</v>
+      </c>
+      <c r="D3052" t="n">
+        <v>20250</v>
+      </c>
+      <c r="E3052" t="n">
+        <v>20700</v>
+      </c>
+      <c r="F3052" t="n">
+        <v>210484</v>
+      </c>
+      <c r="G3052" t="n">
+        <v>2.222222222222222</v>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B3053" t="n">
+        <v>20850</v>
+      </c>
+      <c r="C3053" t="n">
+        <v>20850</v>
+      </c>
+      <c r="D3053" t="n">
+        <v>20200</v>
+      </c>
+      <c r="E3053" t="n">
+        <v>20200</v>
+      </c>
+      <c r="F3053" t="n">
+        <v>148117</v>
+      </c>
+      <c r="G3053" t="n">
+        <v>-2.415458937198068</v>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B3054" t="n">
+        <v>20050</v>
+      </c>
+      <c r="C3054" t="n">
+        <v>20500</v>
+      </c>
+      <c r="D3054" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E3054" t="n">
+        <v>20100</v>
+      </c>
+      <c r="F3054" t="n">
+        <v>135024</v>
+      </c>
+      <c r="G3054" t="n">
+        <v>-0.495049504950495</v>
       </c>
     </row>
   </sheetData>
